--- a/other/BFquoter.xlsx
+++ b/other/BFquoter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purewindows-my.sharepoint.com/personal/mattw_purewindows_co_uk1/Documents/Documents/__Website__/Other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\__Project Pure__\BiFoldPricePure\bifoldquoter\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="310" documentId="13_ncr:1_{DA8EBDCC-C10D-4791-B8AE-EC011C7557DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFC80277-4944-46EF-88F3-DFFA2FE31062}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E107ED9-9A81-461F-8D96-451EB3243168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{50D46F86-0087-4147-AB69-EB9D8964A05A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="50310" windowHeight="21840" activeTab="1" xr2:uid="{50D46F86-0087-4147-AB69-EB9D8964A05A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1049,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84DC6C3-E06C-43A9-82AC-0E243FBBF303}">
-  <dimension ref="D2:S38"/>
+  <dimension ref="D2:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,73 +1060,73 @@
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="O2">
-        <f>I3*J3*K3*L3*M3*N3*O3</f>
+    <row r="2" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>M3*N3*O3*P3*Q3*R3*S3</f>
         <v>32076</v>
       </c>
     </row>
-    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="I3">
-        <f>COUNTA(I6:I38)</f>
+    <row r="3" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f>COUNTA(M6:M38)</f>
         <v>33</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:O3" si="0">COUNTA(J6:J38)</f>
-        <v>3</v>
-      </c>
-      <c r="K3">
+      <c r="N3">
+        <f t="shared" ref="N3:R3" si="0">COUNTA(N6:N38)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="N3">
+      <c r="R3">
         <f t="shared" si="0"/>
         <v>3</v>
-      </c>
-      <c r="O3">
-        <f>COUNTA(O6:O38)</f>
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <f>COUNTA(P6:P38)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>COUNTA(Q6:Q38)</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>COUNTA(R6:R38)</f>
-        <v>0</v>
       </c>
       <c r="S3">
         <f>COUNTA(S6:S38)</f>
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f>COUNTA(T6:T38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="P4" t="s">
+      <c r="U3">
+        <f>COUNTA(U6:U38)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>COUNTA(V6:V38)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>COUNTA(W6:W38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>67</v>
       </c>
-      <c r="R4" t="s">
+      <c r="V4" t="s">
         <v>67</v>
       </c>
-      <c r="S4" t="s">
+      <c r="W4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>56</v>
       </c>
@@ -1136,304 +1136,304 @@
       <c r="G5">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>59</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>56</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
         <v>63</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>64</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
         <v>65</v>
       </c>
-      <c r="O5" t="s">
+      <c r="S5" t="s">
         <v>66</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>42</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
+      <c r="V5" t="s">
         <v>61</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
         <v>202</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>70</v>
       </c>
-      <c r="K6">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>71</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
         <v>71</v>
       </c>
-      <c r="O6" t="s">
+      <c r="S6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
       </c>
-      <c r="I7">
+      <c r="M7">
         <v>220</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>69</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
         <v>73</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>73</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
         <v>73</v>
       </c>
-      <c r="O7" t="s">
+      <c r="S7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>211</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>68</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
         <v>72</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q8" t="s">
         <v>72</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="S8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
         <v>303</v>
       </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="I10">
+      <c r="M10">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="I12">
+      <c r="M12">
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="I14">
+    <row r="14" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="M14">
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="I15">
+    <row r="15" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="M15">
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="I16">
+    <row r="16" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="M16">
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I17">
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M17">
         <v>431</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18">
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="M18">
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I19">
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M19">
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I20">
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M20">
         <v>523</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I21">
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M21">
         <v>532</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I22">
+    <row r="22" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M22">
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I23">
+    <row r="23" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M23">
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H24">
+    <row r="24" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L24">
         <v>6</v>
       </c>
-      <c r="I24">
+      <c r="M24">
         <v>606</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I25">
+    <row r="25" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M25">
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I26">
+    <row r="26" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M26">
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I27">
+    <row r="27" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M27">
         <v>624</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I28">
+    <row r="28" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M28">
         <v>642</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I29">
+    <row r="29" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M29">
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I30">
+    <row r="30" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M30">
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H31">
+    <row r="31" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L31">
         <v>7</v>
       </c>
-      <c r="I31">
+      <c r="M31">
         <v>707</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I32">
+    <row r="32" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M32">
         <v>770</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33">
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33">
         <v>734</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34">
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34">
         <v>743</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35">
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35">
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36">
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36">
         <v>752</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37">
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37">
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38">
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38">
         <v>761</v>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA17D7A3-99E7-4C2F-B68E-4176051FFBA3}">
   <dimension ref="C1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
